--- a/納豆仕様書10.30.xlsx
+++ b/納豆仕様書10.30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\田中 湧輝\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492010F0-A233-4DAC-9338-6BAA64A9A803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C8CC6A-7359-4113-937C-2C0A06961EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{C4C6002F-9450-4BE2-A7A1-30430E39AEEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{C4C6002F-9450-4BE2-A7A1-30430E39AEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1430,6 +1430,24 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>マップデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト判定</t>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フック判定</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1789,7 +1807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1966,6 +1984,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8298,8 +8322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="946766" y="18101842"/>
-          <a:ext cx="510535" cy="776908"/>
+          <a:off x="944621" y="18584347"/>
+          <a:ext cx="510535" cy="798353"/>
           <a:chOff x="1002432" y="7361713"/>
           <a:chExt cx="510535" cy="786390"/>
         </a:xfrm>
@@ -8832,15 +8856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>10885</xdr:colOff>
+      <xdr:colOff>115988</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>374021</xdr:rowOff>
+      <xdr:rowOff>347745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>734496</xdr:colOff>
+      <xdr:colOff>839599</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>41976</xdr:rowOff>
+      <xdr:rowOff>15700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8855,8 +8879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="921568" y="1572777"/>
-          <a:ext cx="5277026" cy="3264223"/>
+          <a:off x="1024526" y="1578668"/>
+          <a:ext cx="5266304" cy="3360724"/>
           <a:chOff x="926997" y="1581234"/>
           <a:chExt cx="5304173" cy="3289596"/>
         </a:xfrm>
@@ -11004,7 +11028,7 @@
             </xdr:blipFill>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="4276933" y="2648567"/>
+                <a:off x="4224557" y="2700429"/>
                 <a:ext cx="1000779" cy="1007512"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -12367,8 +12391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1026707" y="7800366"/>
-          <a:ext cx="510535" cy="776908"/>
+          <a:off x="1024562" y="8004090"/>
+          <a:ext cx="510535" cy="798353"/>
           <a:chOff x="1002432" y="7361713"/>
           <a:chExt cx="510535" cy="786390"/>
         </a:xfrm>
@@ -13860,8 +13884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="876300" y="11740376"/>
-          <a:ext cx="5273309" cy="3271035"/>
+          <a:off x="876300" y="12051323"/>
+          <a:ext cx="5260442" cy="3356814"/>
           <a:chOff x="926997" y="1581234"/>
           <a:chExt cx="5304173" cy="3289593"/>
         </a:xfrm>
@@ -16392,8 +16416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1934854" y="11766318"/>
-          <a:ext cx="2567154" cy="2527215"/>
+          <a:off x="1930565" y="12077265"/>
+          <a:ext cx="2562865" cy="2591549"/>
           <a:chOff x="15321063" y="11575916"/>
           <a:chExt cx="2561618" cy="2561618"/>
         </a:xfrm>
@@ -18262,16 +18286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>216533</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>831272</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>258096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>182615</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30715</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>861487</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18286,8 +18310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="2343783"/>
-          <a:ext cx="3681465" cy="671432"/>
+          <a:off x="13632872" y="2613369"/>
+          <a:ext cx="3687815" cy="645455"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18405,15 +18429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>677237</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>115768</xdr:rowOff>
+      <xdr:colOff>635674</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>646654</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>216297</xdr:rowOff>
+      <xdr:colOff>605091</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22333</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18428,8 +18452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="677237" y="3671768"/>
-          <a:ext cx="2707855" cy="672029"/>
+          <a:off x="635674" y="2277077"/>
+          <a:ext cx="2712617" cy="654711"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18531,15 +18555,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>684843</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45955</xdr:rowOff>
+      <xdr:colOff>629425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>654260</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146484</xdr:rowOff>
+      <xdr:colOff>598842</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18554,8 +18578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="684843" y="5030705"/>
-          <a:ext cx="2707855" cy="672029"/>
+          <a:off x="629425" y="3578864"/>
+          <a:ext cx="2712617" cy="654711"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18591,7 +18615,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>バンジージャンプ</a:t>
+            <a:t>ゲームシーン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18601,15 +18625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101992</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:colOff>88137</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>896938</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68309</xdr:rowOff>
+      <xdr:colOff>883083</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165290</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18624,8 +18648,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2840430" y="6754813"/>
-          <a:ext cx="1707758" cy="12746"/>
+          <a:off x="2831337" y="5278726"/>
+          <a:ext cx="1709346" cy="12746"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -18658,15 +18682,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>891310</xdr:colOff>
+      <xdr:colOff>886691</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>70313</xdr:rowOff>
+      <xdr:rowOff>70314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>896938</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
+      <xdr:colOff>891310</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18680,9 +18704,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4542560" y="1340313"/>
-          <a:ext cx="5628" cy="5446250"/>
+        <a:xfrm flipV="1">
+          <a:off x="4544291" y="1317223"/>
+          <a:ext cx="4619" cy="3975213"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -18794,8 +18818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6888907" y="927188"/>
-          <a:ext cx="4330081" cy="6969903"/>
+          <a:off x="6916616" y="927188"/>
+          <a:ext cx="4349873" cy="6969903"/>
           <a:chOff x="211016" y="973015"/>
           <a:chExt cx="4349831" cy="7081017"/>
         </a:xfrm>
@@ -19360,15 +19384,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>208085</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20516</xdr:rowOff>
+      <xdr:colOff>194230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119577</xdr:rowOff>
+      <xdr:colOff>59414</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161140</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19383,8 +19407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1116623" y="6277708"/>
-          <a:ext cx="1682261" cy="655907"/>
+          <a:off x="1108630" y="4911170"/>
+          <a:ext cx="1693984" cy="653243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -19425,62 +19449,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>179656</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>225669</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D81A78-13D4-4FFD-B1C4-E36664053750}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1992923" y="5597769"/>
-          <a:ext cx="3810" cy="606669"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -25016,8 +24984,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A718B2C7-76E1-4957-91A4-BC8E1B84C788}" name="テーブル1483" displayName="テーブル1483" ref="I6:K10" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="I6:K10" xr:uid="{A718B2C7-76E1-4957-91A4-BC8E1B84C788}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A718B2C7-76E1-4957-91A4-BC8E1B84C788}" name="テーブル1483" displayName="テーブル1483" ref="I6:K11" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="I6:K11" xr:uid="{A718B2C7-76E1-4957-91A4-BC8E1B84C788}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{0A75448F-4396-4715-BA24-9F91ADC7CDE5}" name="番号" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{CF4CE4DC-FDC3-42B3-A328-A5515188ECEA}" name="名前"/>
@@ -25534,8 +25502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB1FB3E-2A6A-4139-AC1F-157944B8A2F2}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -25747,7 +25715,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="59" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="25">
@@ -25758,37 +25726,33 @@
         <v>45</v>
       </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
-        <v>37</v>
+      <c r="G13" s="60" t="s">
+        <v>38</v>
       </c>
-      <c r="H13" s="35" t="s">
-        <v>58</v>
+      <c r="H13" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="33" t="s">
-        <v>29</v>
+      <c r="B14" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="25">
-        <v>44502</v>
+        <v>44504</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="30" t="s">
-        <v>45</v>
+      <c r="E14" s="16" t="s">
+        <v>44</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
-        <v>38</v>
+      <c r="F14" s="16"/>
+      <c r="G14" s="59" t="s">
+        <v>100</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>40</v>
-      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="33" t="s">
@@ -25817,48 +25781,56 @@
         <v>67</v>
       </c>
       <c r="C16" s="25">
-        <v>44502</v>
+        <v>44504</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="33" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C17" s="25">
         <v>44502</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
-        <v>44</v>
+      <c r="E17" s="30" t="s">
+        <v>45</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>100</v>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>37</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="33" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C18" s="25">
         <v>44502</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
@@ -25879,8 +25851,8 @@
   </sheetPr>
   <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -26146,8 +26118,8 @@
   </sheetPr>
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -26247,6 +26219,21 @@
         <v>44502</v>
       </c>
       <c r="M10" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="16">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55">
+        <v>44504</v>
+      </c>
+      <c r="M11" s="54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -26394,8 +26381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDBFF7B-12FE-4867-B1E5-E3FB0FF55B62}">
   <dimension ref="A2:I2"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
